--- a/_templates/Digital-Bulletin-Board-With-OneDrive/data-files/company_data_CN.xlsx
+++ b/_templates/Digital-Bulletin-Board-With-OneDrive/data-files/company_data_CN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey Cherisea\Documents\templates\_templates\Digital-Bulletin-Board-With-OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey Cherisea\Documents\templates\_templates\Digital-Bulletin-Board-With-OneDrive\data-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A9DA5-61D0-4054-BF20-73BD40F25AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C732FD-97DF-4834-841C-39A854E9B69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42285" yWindow="2025" windowWidth="15390" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily menu" sheetId="4" r:id="rId1"/>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>Dessert_Price</t>
-  </si>
-  <si>
-    <t>Pork fillet sliced with mushroom sauce on herb noodles</t>
-  </si>
-  <si>
-    <t>Breton kape hake with celery, leek and tomatoes</t>
-  </si>
-  <si>
-    <t>Spaghetti Napoli with cheese</t>
-  </si>
-  <si>
-    <t>Creme Brulee with wild berries</t>
   </si>
   <si>
     <t>Headline</t>
@@ -129,6 +117,18 @@
   </si>
   <si>
     <t>新网站已经上线，页面非常漂亮！感谢所有参与该项目的同事。如果仍然发现一些小问题，请联系市场部！</t>
+  </si>
+  <si>
+    <t>猪排趴面</t>
+  </si>
+  <si>
+    <t>Breton kape hake鱼配鲜蔬</t>
+  </si>
+  <si>
+    <t>芝士意面</t>
+  </si>
+  <si>
+    <t>原野Creme Brulee</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E115229F-04F0-4497-B615-445CE946BB3C}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I99"/>
+    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -553,25 +553,25 @@
         <v>44102</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>5.5</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>2.2999999999999998</v>
@@ -582,25 +582,25 @@
         <v>44103</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>5.5</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>2.2999999999999998</v>
@@ -611,25 +611,25 @@
         <v>44104</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>5.5</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>2.2999999999999998</v>
@@ -640,25 +640,25 @@
         <v>44105</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>5.5</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>2.2999999999999998</v>
@@ -669,25 +669,25 @@
         <v>44106</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>5.5</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>2.2999999999999998</v>
@@ -698,25 +698,25 @@
         <v>44107</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>5.5</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I7">
         <v>2.2999999999999998</v>
@@ -727,25 +727,25 @@
         <v>44108</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>5.5</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I8">
         <v>2.2999999999999998</v>
@@ -756,25 +756,25 @@
         <v>44109</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>5.5</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>2.2999999999999998</v>
@@ -785,25 +785,25 @@
         <v>44110</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>5.5</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>2.2999999999999998</v>
@@ -814,25 +814,25 @@
         <v>44111</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>5.5</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <v>2.2999999999999998</v>
@@ -843,25 +843,25 @@
         <v>44112</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>5.5</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>2.2999999999999998</v>
@@ -872,25 +872,25 @@
         <v>44113</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>5.5</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13">
         <v>2.2999999999999998</v>
@@ -901,25 +901,25 @@
         <v>44114</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>5.5</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I14">
         <v>2.2999999999999998</v>
@@ -930,25 +930,25 @@
         <v>44115</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>5.5</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I15">
         <v>2.2999999999999998</v>
@@ -959,25 +959,25 @@
         <v>44116</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>5.5</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I16">
         <v>2.2999999999999998</v>
@@ -988,25 +988,25 @@
         <v>44117</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>5.5</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I17">
         <v>2.2999999999999998</v>
@@ -1017,25 +1017,25 @@
         <v>44118</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>5.5</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>2.2999999999999998</v>
@@ -1046,25 +1046,25 @@
         <v>44119</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>5.5</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I19">
         <v>2.2999999999999998</v>
@@ -1075,25 +1075,25 @@
         <v>44120</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>5.5</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I20">
         <v>2.2999999999999998</v>
@@ -1104,25 +1104,25 @@
         <v>44121</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>5.5</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I21">
         <v>2.2999999999999998</v>
@@ -1133,25 +1133,25 @@
         <v>44122</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>5.5</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <v>2.2999999999999998</v>
@@ -1162,25 +1162,25 @@
         <v>44123</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>5.5</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I23">
         <v>2.2999999999999998</v>
@@ -1191,25 +1191,25 @@
         <v>44124</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>5.5</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>2.2999999999999998</v>
@@ -1220,25 +1220,25 @@
         <v>44125</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>5.5</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>2.2999999999999998</v>
@@ -1249,25 +1249,25 @@
         <v>44126</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>5.5</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I26">
         <v>2.2999999999999998</v>
@@ -1278,25 +1278,25 @@
         <v>44127</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>5.5</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I27">
         <v>2.2999999999999998</v>
@@ -1307,25 +1307,25 @@
         <v>44128</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>5.5</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I28">
         <v>2.2999999999999998</v>
@@ -1336,25 +1336,25 @@
         <v>44129</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>5.5</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I29">
         <v>2.2999999999999998</v>
@@ -1365,25 +1365,25 @@
         <v>44130</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>5.5</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I30">
         <v>2.2999999999999998</v>
@@ -1394,25 +1394,25 @@
         <v>44131</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>5.5</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I31">
         <v>2.2999999999999998</v>
@@ -1423,25 +1423,25 @@
         <v>44132</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E32">
         <v>5.5</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I32">
         <v>2.2999999999999998</v>
@@ -1452,25 +1452,25 @@
         <v>44133</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>5.5</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I33">
         <v>2.2999999999999998</v>
@@ -1481,25 +1481,25 @@
         <v>44134</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E34">
         <v>5.5</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>8</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I34">
         <v>2.2999999999999998</v>
@@ -1510,25 +1510,25 @@
         <v>44135</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>5.5</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I35">
         <v>2.2999999999999998</v>
@@ -1539,25 +1539,25 @@
         <v>44136</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>5.5</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I36">
         <v>2.2999999999999998</v>
@@ -1568,25 +1568,25 @@
         <v>44137</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E37">
         <v>5.5</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I37">
         <v>2.2999999999999998</v>
@@ -1597,25 +1597,25 @@
         <v>44138</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E38">
         <v>5.5</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I38">
         <v>2.2999999999999998</v>
@@ -1626,25 +1626,25 @@
         <v>44139</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>5.5</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I39">
         <v>2.2999999999999998</v>
@@ -1655,25 +1655,25 @@
         <v>44140</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>5.5</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I40">
         <v>2.2999999999999998</v>
@@ -1684,25 +1684,25 @@
         <v>44141</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <v>5.5</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I41">
         <v>2.2999999999999998</v>
@@ -1713,25 +1713,25 @@
         <v>44142</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E42">
         <v>5.5</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I42">
         <v>2.2999999999999998</v>
@@ -1742,25 +1742,25 @@
         <v>44143</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>5.5</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I43">
         <v>2.2999999999999998</v>
@@ -1771,25 +1771,25 @@
         <v>44144</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E44">
         <v>5.5</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I44">
         <v>2.2999999999999998</v>
@@ -1800,25 +1800,25 @@
         <v>44145</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>5.5</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I45">
         <v>2.2999999999999998</v>
@@ -1829,25 +1829,25 @@
         <v>44146</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E46">
         <v>5.5</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I46">
         <v>2.2999999999999998</v>
@@ -1858,25 +1858,25 @@
         <v>44147</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E47">
         <v>5.5</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I47">
         <v>2.2999999999999998</v>
@@ -1887,25 +1887,25 @@
         <v>44148</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E48">
         <v>5.5</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I48">
         <v>2.2999999999999998</v>
@@ -1916,25 +1916,25 @@
         <v>44149</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E49">
         <v>5.5</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I49">
         <v>2.2999999999999998</v>
@@ -1945,25 +1945,25 @@
         <v>44150</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E50">
         <v>5.5</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I50">
         <v>2.2999999999999998</v>
@@ -1974,25 +1974,25 @@
         <v>44151</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C51">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E51">
         <v>5.5</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I51">
         <v>2.2999999999999998</v>
@@ -2003,25 +2003,25 @@
         <v>44152</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E52">
         <v>5.5</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I52">
         <v>2.2999999999999998</v>
@@ -2032,25 +2032,25 @@
         <v>44153</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E53">
         <v>5.5</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I53">
         <v>2.2999999999999998</v>
@@ -2061,25 +2061,25 @@
         <v>44154</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E54">
         <v>5.5</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I54">
         <v>2.2999999999999998</v>
@@ -2090,25 +2090,25 @@
         <v>44155</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E55">
         <v>5.5</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I55">
         <v>2.2999999999999998</v>
@@ -2119,25 +2119,25 @@
         <v>44156</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>5.5</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I56">
         <v>2.2999999999999998</v>
@@ -2148,25 +2148,25 @@
         <v>44157</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E57">
         <v>5.5</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I57">
         <v>2.2999999999999998</v>
@@ -2177,25 +2177,25 @@
         <v>44158</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E58">
         <v>5.5</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I58">
         <v>2.2999999999999998</v>
@@ -2206,25 +2206,25 @@
         <v>44159</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E59">
         <v>5.5</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I59">
         <v>2.2999999999999998</v>
@@ -2235,25 +2235,25 @@
         <v>44160</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E60">
         <v>5.5</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I60">
         <v>2.2999999999999998</v>
@@ -2264,25 +2264,25 @@
         <v>44161</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E61">
         <v>5.5</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I61">
         <v>2.2999999999999998</v>
@@ -2293,25 +2293,25 @@
         <v>44162</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E62">
         <v>5.5</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I62">
         <v>2.2999999999999998</v>
@@ -2322,25 +2322,25 @@
         <v>44163</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E63">
         <v>5.5</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I63">
         <v>2.2999999999999998</v>
@@ -2351,25 +2351,25 @@
         <v>44164</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E64">
         <v>5.5</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I64">
         <v>2.2999999999999998</v>
@@ -2380,25 +2380,25 @@
         <v>44165</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E65">
         <v>5.5</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I65">
         <v>2.2999999999999998</v>
@@ -2409,25 +2409,25 @@
         <v>44166</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E66">
         <v>5.5</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I66">
         <v>2.2999999999999998</v>
@@ -2438,25 +2438,25 @@
         <v>44167</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E67">
         <v>5.5</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I67">
         <v>2.2999999999999998</v>
@@ -2467,25 +2467,25 @@
         <v>44168</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E68">
         <v>5.5</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I68">
         <v>2.2999999999999998</v>
@@ -2496,25 +2496,25 @@
         <v>44169</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E69">
         <v>5.5</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>8</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I69">
         <v>2.2999999999999998</v>
@@ -2525,25 +2525,25 @@
         <v>44170</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E70">
         <v>5.5</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>8</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I70">
         <v>2.2999999999999998</v>
@@ -2554,25 +2554,25 @@
         <v>44171</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E71">
         <v>5.5</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I71">
         <v>2.2999999999999998</v>
@@ -2583,25 +2583,25 @@
         <v>44172</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E72">
         <v>5.5</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I72">
         <v>2.2999999999999998</v>
@@ -2612,25 +2612,25 @@
         <v>44173</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C73">
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E73">
         <v>5.5</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I73">
         <v>2.2999999999999998</v>
@@ -2641,25 +2641,25 @@
         <v>44174</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C74">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E74">
         <v>5.5</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I74">
         <v>2.2999999999999998</v>
@@ -2670,25 +2670,25 @@
         <v>44175</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E75">
         <v>5.5</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I75">
         <v>2.2999999999999998</v>
@@ -2699,25 +2699,25 @@
         <v>44176</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E76">
         <v>5.5</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I76">
         <v>2.2999999999999998</v>
@@ -2728,25 +2728,25 @@
         <v>44177</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E77">
         <v>5.5</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I77">
         <v>2.2999999999999998</v>
@@ -2757,25 +2757,25 @@
         <v>44178</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C78">
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E78">
         <v>5.5</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I78">
         <v>2.2999999999999998</v>
@@ -2786,25 +2786,25 @@
         <v>44179</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E79">
         <v>5.5</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I79">
         <v>2.2999999999999998</v>
@@ -2815,25 +2815,25 @@
         <v>44180</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E80">
         <v>5.5</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I80">
         <v>2.2999999999999998</v>
@@ -2844,25 +2844,25 @@
         <v>44181</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E81">
         <v>5.5</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I81">
         <v>2.2999999999999998</v>
@@ -2873,25 +2873,25 @@
         <v>44182</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C82">
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E82">
         <v>5.5</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I82">
         <v>2.2999999999999998</v>
@@ -2902,25 +2902,25 @@
         <v>44183</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E83">
         <v>5.5</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I83">
         <v>2.2999999999999998</v>
@@ -2931,25 +2931,25 @@
         <v>44184</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E84">
         <v>5.5</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I84">
         <v>2.2999999999999998</v>
@@ -2960,25 +2960,25 @@
         <v>44185</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E85">
         <v>5.5</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I85">
         <v>2.2999999999999998</v>
@@ -2989,25 +2989,25 @@
         <v>44186</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E86">
         <v>5.5</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I86">
         <v>2.2999999999999998</v>
@@ -3018,25 +3018,25 @@
         <v>44187</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C87">
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E87">
         <v>5.5</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>8</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I87">
         <v>2.2999999999999998</v>
@@ -3047,25 +3047,25 @@
         <v>44188</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C88">
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E88">
         <v>5.5</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>8</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I88">
         <v>2.2999999999999998</v>
@@ -3076,25 +3076,25 @@
         <v>44189</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E89">
         <v>5.5</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I89">
         <v>2.2999999999999998</v>
@@ -3105,25 +3105,25 @@
         <v>44190</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C90">
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E90">
         <v>5.5</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I90">
         <v>2.2999999999999998</v>
@@ -3134,25 +3134,25 @@
         <v>44191</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C91">
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E91">
         <v>5.5</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I91">
         <v>2.2999999999999998</v>
@@ -3163,25 +3163,25 @@
         <v>44192</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C92">
         <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E92">
         <v>5.5</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>8</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I92">
         <v>2.2999999999999998</v>
@@ -3192,25 +3192,25 @@
         <v>44193</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C93">
         <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E93">
         <v>5.5</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I93">
         <v>2.2999999999999998</v>
@@ -3221,25 +3221,25 @@
         <v>44194</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C94">
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E94">
         <v>5.5</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I94">
         <v>2.2999999999999998</v>
@@ -3250,25 +3250,25 @@
         <v>44195</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C95">
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E95">
         <v>5.5</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>8</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I95">
         <v>2.2999999999999998</v>
@@ -3279,25 +3279,25 @@
         <v>44196</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E96">
         <v>5.5</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I96">
         <v>2.2999999999999998</v>
@@ -3308,25 +3308,25 @@
         <v>44197</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C97">
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E97">
         <v>5.5</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>8</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I97">
         <v>2.2999999999999998</v>
@@ -3337,25 +3337,25 @@
         <v>44198</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C98">
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E98">
         <v>5.5</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I98">
         <v>2.2999999999999998</v>
@@ -3366,25 +3366,25 @@
         <v>44199</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C99">
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E99">
         <v>5.5</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I99">
         <v>2.2999999999999998</v>
@@ -3399,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE04C40B-27F6-484E-80BA-CD2303CB5C39}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3417,16 +3417,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -3434,16 +3434,16 @@
         <v>44083</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
@@ -3451,16 +3451,16 @@
         <v>44084</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -3468,16 +3468,16 @@
         <v>44085</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
@@ -3485,16 +3485,16 @@
         <v>44086</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -3502,16 +3502,16 @@
         <v>44087</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">

--- a/_templates/Digital-Bulletin-Board-With-OneDrive/data-files/company_data_CN.xlsx
+++ b/_templates/Digital-Bulletin-Board-With-OneDrive/data-files/company_data_CN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey Cherisea\Documents\templates\_templates\Digital-Bulletin-Board-With-OneDrive\data-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Digital-Bulletin-Board-With-OneDrive/data-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C732FD-97DF-4834-841C-39A854E9B69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C197B5-1691-604E-A7C6-6D4506486A5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42285" yWindow="2025" windowWidth="15390" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1920" windowWidth="48680" windowHeight="9620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily menu" sheetId="4" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>https://image.freepik.com/free-vector/network-mesh-wire-digital-technology-background_1017-27428.jpg</t>
   </si>
   <si>
-    <t>https://image.freepik.com/free-psd/website-design-your-business_24972-394.jpg</t>
-  </si>
-  <si>
     <t>新版休假规定</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>原野Creme Brulee</t>
+  </si>
+  <si>
+    <t>https://image.freepik.com/free-psd/business-promotion-corporate-web-banner-template_120329-1249.jpg</t>
   </si>
 </sst>
 </file>
@@ -504,22 +504,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E115229F-04F0-4497-B615-445CE946BB3C}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+    <sheetView topLeftCell="B71" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" customWidth="1"/>
-    <col min="4" max="4" width="39.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.265625" customWidth="1"/>
-    <col min="6" max="6" width="22.73046875" customWidth="1"/>
-    <col min="7" max="8" width="15.86328125" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,2843 +548,2843 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44102</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>5.5</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44103</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>5.5</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44104</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>5.5</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44105</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>5.5</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44106</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>5.5</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44107</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>5.5</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44108</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>5.5</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44109</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>5.5</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44110</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>5.5</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44111</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>5.5</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44112</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>5.5</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44113</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>5.5</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44114</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>5.5</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44115</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>5.5</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44116</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>5.5</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44117</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>5.5</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44118</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>5.5</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44119</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>5.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44120</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>5.5</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44121</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>5.5</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44122</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>5.5</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44123</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>5.5</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44124</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>5.5</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44125</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>5.5</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44126</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>5.5</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44127</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>5.5</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44128</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>5.5</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44129</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>5.5</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44130</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>5.5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44131</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>5.5</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44132</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>5.5</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44133</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>5.5</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44134</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>5.5</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>8</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44135</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>5.5</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44136</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>5.5</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44137</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>5.5</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44138</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>5.5</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44139</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39">
         <v>5.5</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44140</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>5.5</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44141</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>5.5</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44142</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>5.5</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44143</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>5.5</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44144</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>5.5</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44145</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>5.5</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44146</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>5.5</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I46">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44147</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E47">
         <v>5.5</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I47">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44148</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48">
         <v>5.5</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I48">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44149</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>5.5</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I49">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44150</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50">
         <v>5.5</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I50">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44151</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>5.5</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I51">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44152</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52">
         <v>5.5</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44153</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>5.5</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44154</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54">
         <v>5.5</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44155</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55">
         <v>5.5</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44156</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E56">
         <v>5.5</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I56">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44157</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>5.5</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I57">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44158</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>5.5</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I58">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44159</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59">
         <v>5.5</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44160</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>5.5</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I60">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44161</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>5.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I61">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44162</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62">
         <v>5.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I62">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44163</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63">
         <v>5.5</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I63">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44164</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64">
         <v>5.5</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I64">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44165</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65">
         <v>5.5</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I65">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44166</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E66">
         <v>5.5</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I66">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44167</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E67">
         <v>5.5</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I67">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44168</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E68">
         <v>5.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I68">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44169</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69">
         <v>5.5</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>8</v>
       </c>
       <c r="H69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I69">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44170</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E70">
         <v>5.5</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>8</v>
       </c>
       <c r="H70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I70">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44171</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E71">
         <v>5.5</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I71">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44172</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E72">
         <v>5.5</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I72">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44173</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E73">
         <v>5.5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I73">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44174</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E74">
         <v>5.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I74">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44175</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E75">
         <v>5.5</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I75">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44176</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76">
         <v>5.5</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I76">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44177</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E77">
         <v>5.5</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I77">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44178</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78">
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78">
         <v>5.5</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I78">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44179</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79">
         <v>5.5</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I79">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44180</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80">
         <v>5.5</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I80">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44181</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E81">
         <v>5.5</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I81">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44182</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C82">
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E82">
         <v>5.5</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I82">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44183</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E83">
         <v>5.5</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I83">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44184</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84">
         <v>5.5</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I84">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44185</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E85">
         <v>5.5</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I85">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44186</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E86">
         <v>5.5</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I86">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44187</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87">
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E87">
         <v>5.5</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>8</v>
       </c>
       <c r="H87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I87">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44188</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88">
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E88">
         <v>5.5</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>8</v>
       </c>
       <c r="H88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I88">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44189</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E89">
         <v>5.5</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I89">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44190</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90">
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E90">
         <v>5.5</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I90">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44191</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E91">
         <v>5.5</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I91">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44192</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92">
         <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E92">
         <v>5.5</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>8</v>
       </c>
       <c r="H92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I92">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44193</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93">
         <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E93">
         <v>5.5</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I93">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44194</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94">
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E94">
         <v>5.5</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I94">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44195</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95">
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E95">
         <v>5.5</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>8</v>
       </c>
       <c r="H95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I95">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44196</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E96">
         <v>5.5</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I96">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44197</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97">
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97">
         <v>5.5</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>8</v>
       </c>
       <c r="H97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I97">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44198</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C98">
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E98">
         <v>5.5</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I98">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44199</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C99">
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E99">
         <v>5.5</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I99">
         <v>2.2999999999999998</v>
@@ -3399,20 +3399,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE04C40B-27F6-484E-80BA-CD2303CB5C39}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.86328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3429,15 +3429,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44083</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
@@ -3446,15 +3446,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44084</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>15</v>
@@ -3463,15 +3463,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44085</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
@@ -3480,15 +3480,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44086</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>19</v>
@@ -3497,44 +3497,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44087</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
   </sheetData>
@@ -3548,7 +3548,6 @@
     <hyperlink ref="E3" r:id="rId7" xr:uid="{2237000D-82F6-4C4F-8014-B705D2DEEFB8}"/>
     <hyperlink ref="E4" r:id="rId8" xr:uid="{3D37F35A-E02C-4563-8F4F-3CCD9C001860}"/>
     <hyperlink ref="E5" r:id="rId9" xr:uid="{78A8BDEA-7934-4DE4-916B-C587E4DA1E11}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{E8E83E0E-4BCD-4B89-A7B2-FB5C1449C69D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
